--- a/results/minimal_seats-Austria.xlsx
+++ b/results/minimal_seats-Austria.xlsx
@@ -19,31 +19,31 @@
     <t>Key</t>
   </si>
   <si>
-    <t>FPÖ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA </t>
-  </si>
-  <si>
-    <t>LIF</t>
-  </si>
-  <si>
-    <t>SPÖ</t>
-  </si>
-  <si>
-    <t>ÖVP</t>
-  </si>
-  <si>
-    <t>BZÖ</t>
-  </si>
-  <si>
-    <t>FRA</t>
-  </si>
-  <si>
-    <t>NEO</t>
-  </si>
-  <si>
-    <t>PIL</t>
+    <t>FPÖ - Freedom Party of Austria (Freiheitliche Partei Österreichs, FPÖ)</t>
+  </si>
+  <si>
+    <t>GA - The Greens-Green Alternative (Die Grünen-Die Grüne Alternative, GA)</t>
+  </si>
+  <si>
+    <t>LIF - Liberal Forum (Liberales Forum, LIF)</t>
+  </si>
+  <si>
+    <t>SPÖ - Social Democratic Party of Austria  (Sozialdemokratische Partei Österreichs, SPÖ)</t>
+  </si>
+  <si>
+    <t>ÖVP - Austrian People's Party  (Österreichische Volkspartei, ÖVP)</t>
+  </si>
+  <si>
+    <t>BZÖ - Alliance for the Future of Austria  (Bündnis Zukunft Österreich , BZÖ)</t>
+  </si>
+  <si>
+    <t>FRANK - Team Frank Stronach (Team Frank Stronach, FRANK)</t>
+  </si>
+  <si>
+    <t>NEOS - New Austria and Liberal Forum (NEOS Das Neue Österreich und Liberales Forum, NEOS)</t>
+  </si>
+  <si>
+    <t>PILZ - Peter Pilz List (Liste Peter Pilz, PILZ)</t>
   </si>
   <si>
     <t>1994</t>
